--- a/IPO.xlsx
+++ b/IPO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Stock-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E09E5-4B38-45FF-BFA4-8D514A55EA95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6713841-9941-4308-A169-FFCD3442C3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{733BDA92-9E3C-4E5F-9E15-F00BFF817DE9}"/>
   </bookViews>
@@ -9935,17 +9935,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674653B-1392-4A8B-9221-01EFCE7BDB8A}">
   <dimension ref="A1:R1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q226" sqref="Q226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="Q96" s="2">
         <f>SUM(N96:N226)</f>
-        <v>-81728</v>
+        <v>5169.3500000000004</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -17299,6 +17299,9 @@
         <f t="shared" si="13"/>
         <v>42986</v>
       </c>
+      <c r="J144" s="2">
+        <v>17.850000000000001</v>
+      </c>
       <c r="K144">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -17309,11 +17312,11 @@
       </c>
       <c r="M144" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>910.35</v>
       </c>
       <c r="N144" s="2">
         <f t="shared" si="17"/>
-        <v>-1012.35</v>
+        <v>-102</v>
       </c>
       <c r="O144" s="2"/>
     </row>
@@ -17347,6 +17350,9 @@
         <f t="shared" si="13"/>
         <v>42986</v>
       </c>
+      <c r="J145" s="2">
+        <v>95.73</v>
+      </c>
       <c r="K145">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -17357,11 +17363,11 @@
       </c>
       <c r="M145" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1148.76</v>
       </c>
       <c r="N145" s="2">
         <f t="shared" si="17"/>
-        <v>-1086</v>
+        <v>62.759999999999991</v>
       </c>
       <c r="O145" s="2"/>
     </row>
@@ -17395,6 +17401,9 @@
         <f t="shared" si="13"/>
         <v>42982</v>
       </c>
+      <c r="J146" s="2">
+        <v>20.84</v>
+      </c>
       <c r="K146">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -17405,11 +17414,11 @@
       </c>
       <c r="M146" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="N146" s="2">
         <f t="shared" si="17"/>
-        <v>-1000</v>
+        <v>42</v>
       </c>
       <c r="O146" s="2"/>
     </row>
@@ -17443,6 +17452,9 @@
         <f t="shared" si="13"/>
         <v>42975</v>
       </c>
+      <c r="J147" s="2">
+        <v>6.72</v>
+      </c>
       <c r="K147">
         <f t="shared" si="14"/>
         <v>154</v>
@@ -17453,11 +17465,11 @@
       </c>
       <c r="M147" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1034.8799999999999</v>
       </c>
       <c r="N147" s="2">
         <f t="shared" si="17"/>
-        <v>-1001</v>
+        <v>33.879999999999882</v>
       </c>
       <c r="O147" s="2"/>
     </row>
@@ -17491,6 +17503,9 @@
         <f t="shared" si="13"/>
         <v>42971</v>
       </c>
+      <c r="J148" s="2">
+        <v>36.32</v>
+      </c>
       <c r="K148">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -17501,11 +17516,11 @@
       </c>
       <c r="M148" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>871.68000000000006</v>
       </c>
       <c r="N148" s="2">
         <f t="shared" si="17"/>
-        <v>-1020</v>
+        <v>-148.31999999999994</v>
       </c>
       <c r="O148" s="2"/>
     </row>
@@ -17539,6 +17554,9 @@
         <f t="shared" si="13"/>
         <v>42968</v>
       </c>
+      <c r="J149" s="2">
+        <v>22.95</v>
+      </c>
       <c r="K149">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -17549,11 +17567,11 @@
       </c>
       <c r="M149" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>986.85</v>
       </c>
       <c r="N149" s="2">
         <f t="shared" si="17"/>
-        <v>-1008.35</v>
+        <v>-21.5</v>
       </c>
       <c r="O149" s="2"/>
     </row>
@@ -17587,6 +17605,9 @@
         <f t="shared" si="13"/>
         <v>42968</v>
       </c>
+      <c r="J150" s="2">
+        <v>99.93</v>
+      </c>
       <c r="K150">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -17597,11 +17618,11 @@
       </c>
       <c r="M150" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1099.23</v>
       </c>
       <c r="N150" s="2">
         <f t="shared" si="17"/>
-        <v>-1056</v>
+        <v>43.230000000000018</v>
       </c>
       <c r="O150" s="2"/>
     </row>
@@ -17635,6 +17656,9 @@
         <f t="shared" si="13"/>
         <v>42968</v>
       </c>
+      <c r="J151" s="2">
+        <v>32.950000000000003</v>
+      </c>
       <c r="K151">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -17645,11 +17669,11 @@
       </c>
       <c r="M151" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>823.75000000000011</v>
       </c>
       <c r="N151" s="2">
         <f t="shared" si="17"/>
-        <v>-1000</v>
+        <v>-176.24999999999989</v>
       </c>
       <c r="O151" s="2"/>
     </row>
@@ -17683,6 +17707,9 @@
         <f t="shared" si="13"/>
         <v>42968</v>
       </c>
+      <c r="J152" s="2">
+        <v>5.46</v>
+      </c>
       <c r="K152">
         <f t="shared" si="14"/>
         <v>167</v>
@@ -17693,11 +17720,11 @@
       </c>
       <c r="M152" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>911.82</v>
       </c>
       <c r="N152" s="2">
         <f t="shared" si="17"/>
-        <v>-1002</v>
+        <v>-90.17999999999995</v>
       </c>
       <c r="O152" s="2"/>
     </row>
@@ -17731,6 +17758,9 @@
         <f t="shared" si="13"/>
         <v>42968</v>
       </c>
+      <c r="J153" s="2">
+        <v>5.15</v>
+      </c>
       <c r="K153">
         <f t="shared" si="14"/>
         <v>223</v>
@@ -17741,11 +17771,11 @@
       </c>
       <c r="M153" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1148.45</v>
       </c>
       <c r="N153" s="2">
         <f t="shared" si="17"/>
-        <v>-1003.5</v>
+        <v>144.95000000000005</v>
       </c>
       <c r="O153" s="2"/>
     </row>
@@ -17779,6 +17809,9 @@
         <f t="shared" si="13"/>
         <v>42968</v>
       </c>
+      <c r="J154" s="2">
+        <v>55.54</v>
+      </c>
       <c r="K154">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -17789,11 +17822,11 @@
       </c>
       <c r="M154" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>944.18</v>
       </c>
       <c r="N154" s="2">
         <f t="shared" si="17"/>
-        <v>-1028.5</v>
+        <v>-84.32000000000005</v>
       </c>
       <c r="O154" s="2"/>
     </row>
@@ -17827,6 +17860,9 @@
         <f t="shared" si="13"/>
         <v>42965</v>
       </c>
+      <c r="J155" s="2">
+        <v>6.26</v>
+      </c>
       <c r="K155">
         <f t="shared" si="14"/>
         <v>154</v>
@@ -17837,11 +17873,11 @@
       </c>
       <c r="M155" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>964.04</v>
       </c>
       <c r="N155" s="2">
         <f t="shared" si="17"/>
-        <v>-1001</v>
+        <v>-36.960000000000036</v>
       </c>
       <c r="O155" s="2"/>
     </row>
@@ -17875,6 +17911,9 @@
         <f t="shared" si="13"/>
         <v>42965</v>
       </c>
+      <c r="J156" s="2">
+        <v>16.22</v>
+      </c>
       <c r="K156">
         <f t="shared" si="14"/>
         <v>64</v>
@@ -17885,11 +17924,11 @@
       </c>
       <c r="M156" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1038.08</v>
       </c>
       <c r="N156" s="2">
         <f t="shared" si="17"/>
-        <v>-1014.4</v>
+        <v>23.67999999999995</v>
       </c>
       <c r="O156" s="2"/>
     </row>
@@ -17923,6 +17962,9 @@
         <f t="shared" si="13"/>
         <v>42961</v>
       </c>
+      <c r="J157" s="2">
+        <v>21.39</v>
+      </c>
       <c r="K157">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -17933,11 +17975,11 @@
       </c>
       <c r="M157" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>898.38</v>
       </c>
       <c r="N157" s="2">
         <f t="shared" si="17"/>
-        <v>-1008</v>
+        <v>-109.62</v>
       </c>
       <c r="O157" s="2"/>
     </row>
@@ -17971,6 +18013,9 @@
         <f t="shared" si="13"/>
         <v>42947</v>
       </c>
+      <c r="J158" s="2">
+        <v>6.65</v>
+      </c>
       <c r="K158">
         <f t="shared" si="14"/>
         <v>130</v>
@@ -17981,11 +18026,11 @@
       </c>
       <c r="M158" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>864.5</v>
       </c>
       <c r="N158" s="2">
         <f t="shared" si="17"/>
-        <v>-1007.5</v>
+        <v>-143</v>
       </c>
       <c r="O158" s="2"/>
     </row>
@@ -18019,6 +18064,9 @@
         <f t="shared" si="13"/>
         <v>42947</v>
       </c>
+      <c r="J159" s="2">
+        <v>15.9</v>
+      </c>
       <c r="K159">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -18029,11 +18077,11 @@
       </c>
       <c r="M159" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>874.5</v>
       </c>
       <c r="N159" s="2">
         <f t="shared" si="17"/>
-        <v>-1017.5</v>
+        <v>-143</v>
       </c>
       <c r="O159" s="2"/>
     </row>
@@ -18067,6 +18115,9 @@
         <f t="shared" si="13"/>
         <v>42947</v>
       </c>
+      <c r="J160" s="2">
+        <v>6.61</v>
+      </c>
       <c r="K160">
         <f t="shared" si="14"/>
         <v>100</v>
@@ -18077,11 +18128,11 @@
       </c>
       <c r="M160" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="N160" s="2">
         <f t="shared" si="17"/>
-        <v>-1000</v>
+        <v>-339</v>
       </c>
       <c r="O160" s="2"/>
     </row>
@@ -18115,6 +18166,9 @@
         <f t="shared" si="13"/>
         <v>42944</v>
       </c>
+      <c r="J161" s="2">
+        <v>19.03</v>
+      </c>
       <c r="K161">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -18125,11 +18179,11 @@
       </c>
       <c r="M161" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>932.47</v>
       </c>
       <c r="N161" s="2">
         <f t="shared" si="17"/>
-        <v>-1016.75</v>
+        <v>-84.279999999999973</v>
       </c>
       <c r="O161" s="2"/>
     </row>
@@ -18163,6 +18217,9 @@
         <f t="shared" si="13"/>
         <v>42933</v>
       </c>
+      <c r="J162" s="2">
+        <v>13.19</v>
+      </c>
       <c r="K162">
         <f t="shared" si="14"/>
         <v>77</v>
@@ -18173,11 +18230,11 @@
       </c>
       <c r="M162" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1015.63</v>
       </c>
       <c r="N162" s="2">
         <f t="shared" si="17"/>
-        <v>-1001</v>
+        <v>14.629999999999995</v>
       </c>
       <c r="O162" s="2"/>
     </row>
@@ -18211,6 +18268,9 @@
         <f t="shared" si="13"/>
         <v>42930</v>
       </c>
+      <c r="J163" s="2">
+        <v>18.82</v>
+      </c>
       <c r="K163">
         <f t="shared" si="14"/>
         <v>91</v>
@@ -18221,11 +18281,11 @@
       </c>
       <c r="M163" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1712.6200000000001</v>
       </c>
       <c r="N163" s="2">
         <f t="shared" si="17"/>
-        <v>-1001</v>
+        <v>711.62000000000012</v>
       </c>
       <c r="O163" s="2"/>
     </row>
@@ -18259,6 +18319,9 @@
         <f t="shared" si="13"/>
         <v>42926</v>
       </c>
+      <c r="J164" s="2">
+        <v>36.31</v>
+      </c>
       <c r="K164">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -18269,11 +18332,11 @@
       </c>
       <c r="M164" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1089.3000000000002</v>
       </c>
       <c r="N164" s="2">
         <f t="shared" si="17"/>
-        <v>-1027.5</v>
+        <v>61.800000000000182</v>
       </c>
       <c r="O164" s="2"/>
     </row>
@@ -18307,6 +18370,9 @@
         <f t="shared" si="13"/>
         <v>42923</v>
       </c>
+      <c r="J165" s="2">
+        <v>49.27</v>
+      </c>
       <c r="K165">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -18317,11 +18383,11 @@
       </c>
       <c r="M165" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1034.67</v>
       </c>
       <c r="N165" s="2">
         <f t="shared" si="17"/>
-        <v>-1029</v>
+        <v>5.6700000000000728</v>
       </c>
       <c r="O165" s="2"/>
     </row>
@@ -18355,6 +18421,9 @@
         <f t="shared" si="13"/>
         <v>42919</v>
       </c>
+      <c r="J166" s="2">
+        <v>28.62</v>
+      </c>
       <c r="K166">
         <f t="shared" si="14"/>
         <v>31</v>
@@ -18365,11 +18434,11 @@
       </c>
       <c r="M166" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>887.22</v>
       </c>
       <c r="N166" s="2">
         <f t="shared" si="17"/>
-        <v>-1023</v>
+        <v>-135.77999999999997</v>
       </c>
       <c r="O166" s="2"/>
     </row>
@@ -18403,6 +18472,9 @@
         <f t="shared" si="13"/>
         <v>42912</v>
       </c>
+      <c r="J167" s="2">
+        <v>17.36</v>
+      </c>
       <c r="K167">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -18413,11 +18485,11 @@
       </c>
       <c r="M167" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1024.24</v>
       </c>
       <c r="N167" s="2">
         <f t="shared" si="17"/>
-        <v>-1003</v>
+        <v>21.240000000000009</v>
       </c>
       <c r="O167" s="2"/>
     </row>
@@ -18451,6 +18523,9 @@
         <f t="shared" si="13"/>
         <v>42912</v>
       </c>
+      <c r="J168" s="2">
+        <v>28.2</v>
+      </c>
       <c r="K168">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -18461,11 +18536,11 @@
       </c>
       <c r="M168" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1015.1999999999999</v>
       </c>
       <c r="N168" s="2">
         <f t="shared" si="17"/>
-        <v>-1006.1999999999999</v>
+        <v>9</v>
       </c>
       <c r="O168" s="2"/>
     </row>
@@ -18499,6 +18574,9 @@
         <f t="shared" si="13"/>
         <v>42912</v>
       </c>
+      <c r="J169" s="2">
+        <v>33.96</v>
+      </c>
       <c r="K169">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -18509,11 +18587,11 @@
       </c>
       <c r="M169" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1120.68</v>
       </c>
       <c r="N169" s="2">
         <f t="shared" si="17"/>
-        <v>-1014.75</v>
+        <v>105.93000000000006</v>
       </c>
       <c r="O169" s="2"/>
     </row>
@@ -18547,6 +18625,9 @@
         <f t="shared" si="13"/>
         <v>42912</v>
       </c>
+      <c r="J170" s="2">
+        <v>29.99</v>
+      </c>
       <c r="K170">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -18557,11 +18638,11 @@
       </c>
       <c r="M170" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1109.6299999999999</v>
       </c>
       <c r="N170" s="2">
         <f t="shared" si="17"/>
-        <v>-1026.75</v>
+        <v>82.879999999999882</v>
       </c>
       <c r="O170" s="2"/>
     </row>
@@ -18595,6 +18676,9 @@
         <f t="shared" si="13"/>
         <v>42905</v>
       </c>
+      <c r="J171" s="2">
+        <v>90.56</v>
+      </c>
       <c r="K171">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -18605,11 +18689,11 @@
       </c>
       <c r="M171" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>996.16000000000008</v>
       </c>
       <c r="N171" s="2">
         <f t="shared" si="17"/>
-        <v>-1001</v>
+        <v>-4.8399999999999181</v>
       </c>
       <c r="O171" s="2"/>
     </row>
@@ -18643,6 +18727,9 @@
         <f t="shared" si="13"/>
         <v>42905</v>
       </c>
+      <c r="J172" s="2">
+        <v>34.79</v>
+      </c>
       <c r="K172">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -18653,11 +18740,11 @@
       </c>
       <c r="M172" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1148.07</v>
       </c>
       <c r="N172" s="2">
         <f t="shared" si="17"/>
-        <v>-1023</v>
+        <v>125.06999999999994</v>
       </c>
       <c r="O172" s="2"/>
     </row>
@@ -18691,6 +18778,9 @@
         <f t="shared" si="13"/>
         <v>42905</v>
       </c>
+      <c r="J173" s="2">
+        <v>23.43</v>
+      </c>
       <c r="K173">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -18701,11 +18791,11 @@
       </c>
       <c r="M173" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1101.21</v>
       </c>
       <c r="N173" s="2">
         <f t="shared" si="17"/>
-        <v>-1010.5</v>
+        <v>90.710000000000036</v>
       </c>
       <c r="O173" s="2"/>
     </row>
@@ -18739,6 +18829,9 @@
         <f t="shared" si="13"/>
         <v>42898</v>
       </c>
+      <c r="J174" s="2">
+        <v>13.9</v>
+      </c>
       <c r="K174">
         <f t="shared" si="14"/>
         <v>72</v>
@@ -18749,11 +18842,11 @@
       </c>
       <c r="M174" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1000.8000000000001</v>
       </c>
       <c r="N174" s="2">
         <f t="shared" si="17"/>
-        <v>-1008</v>
+        <v>-7.1999999999999318</v>
       </c>
       <c r="O174" s="2"/>
     </row>
@@ -18787,6 +18880,9 @@
         <f t="shared" si="13"/>
         <v>42898</v>
       </c>
+      <c r="J175" s="2">
+        <v>23.03</v>
+      </c>
       <c r="K175">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -18797,11 +18893,11 @@
       </c>
       <c r="M175" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1151.5</v>
       </c>
       <c r="N175" s="2">
         <f t="shared" si="17"/>
-        <v>-1000</v>
+        <v>151.5</v>
       </c>
       <c r="O175" s="2"/>
     </row>
@@ -18835,6 +18931,9 @@
         <f t="shared" si="13"/>
         <v>42898</v>
       </c>
+      <c r="J176" s="2">
+        <v>10.39</v>
+      </c>
       <c r="K176">
         <f t="shared" si="14"/>
         <v>84</v>
@@ -18845,11 +18944,11 @@
       </c>
       <c r="M176" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>872.76</v>
       </c>
       <c r="N176" s="2">
         <f t="shared" si="17"/>
-        <v>-1008</v>
+        <v>-135.24</v>
       </c>
       <c r="O176" s="2"/>
     </row>
@@ -18883,6 +18982,9 @@
         <f t="shared" si="13"/>
         <v>42898</v>
       </c>
+      <c r="J177" s="2">
+        <v>29.28</v>
+      </c>
       <c r="K177">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -18893,11 +18995,11 @@
       </c>
       <c r="M177" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1054.08</v>
       </c>
       <c r="N177" s="2">
         <f t="shared" si="17"/>
-        <v>-1017</v>
+        <v>37.079999999999927</v>
       </c>
       <c r="O177" s="2"/>
     </row>
@@ -18931,6 +19033,9 @@
         <f t="shared" si="13"/>
         <v>42891</v>
       </c>
+      <c r="J178" s="2">
+        <v>20.420000000000002</v>
+      </c>
       <c r="K178">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -18941,11 +19046,11 @@
       </c>
       <c r="M178" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1000.58</v>
       </c>
       <c r="N178" s="2">
         <f t="shared" si="17"/>
-        <v>-1004.5</v>
+        <v>-3.9199999999999591</v>
       </c>
       <c r="O178" s="2"/>
     </row>
@@ -18979,6 +19084,9 @@
         <f t="shared" si="13"/>
         <v>42891</v>
       </c>
+      <c r="J179" s="2">
+        <v>21.84</v>
+      </c>
       <c r="K179">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -18989,11 +19097,11 @@
       </c>
       <c r="M179" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>939.12</v>
       </c>
       <c r="N179" s="2">
         <f t="shared" si="17"/>
-        <v>-1010.5</v>
+        <v>-71.38</v>
       </c>
       <c r="O179" s="2"/>
     </row>
@@ -19027,6 +19135,9 @@
         <f t="shared" si="13"/>
         <v>42891</v>
       </c>
+      <c r="J180" s="2">
+        <v>18.02</v>
+      </c>
       <c r="K180">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -19037,11 +19148,11 @@
       </c>
       <c r="M180" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1063.18</v>
       </c>
       <c r="N180" s="2">
         <f t="shared" si="17"/>
-        <v>-1014.8</v>
+        <v>48.380000000000109</v>
       </c>
       <c r="O180" s="2"/>
     </row>
@@ -19075,6 +19186,9 @@
         <f t="shared" si="13"/>
         <v>42884</v>
       </c>
+      <c r="J181" s="2">
+        <v>20.059999999999999</v>
+      </c>
       <c r="K181">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -19085,11 +19199,11 @@
       </c>
       <c r="M181" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1183.54</v>
       </c>
       <c r="N181" s="2">
         <f t="shared" si="17"/>
-        <v>-1003</v>
+        <v>180.53999999999996</v>
       </c>
       <c r="O181" s="2"/>
     </row>
@@ -19123,6 +19237,9 @@
         <f t="shared" si="13"/>
         <v>42884</v>
       </c>
+      <c r="J182" s="2">
+        <v>7.08</v>
+      </c>
       <c r="K182">
         <f t="shared" si="14"/>
         <v>167</v>
@@ -19133,11 +19250,11 @@
       </c>
       <c r="M182" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1182.3599999999999</v>
       </c>
       <c r="N182" s="2">
         <f t="shared" si="17"/>
-        <v>-1002</v>
+        <v>180.3599999999999</v>
       </c>
       <c r="O182" s="2"/>
     </row>
@@ -19171,6 +19288,9 @@
         <f t="shared" si="13"/>
         <v>42884</v>
       </c>
+      <c r="J183" s="2">
+        <v>12.17</v>
+      </c>
       <c r="K183">
         <f t="shared" si="14"/>
         <v>77</v>
@@ -19181,11 +19301,11 @@
       </c>
       <c r="M183" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>937.09</v>
       </c>
       <c r="N183" s="2">
         <f t="shared" si="17"/>
-        <v>-1001</v>
+        <v>-63.909999999999968</v>
       </c>
       <c r="O183" s="2"/>
     </row>
@@ -19219,6 +19339,9 @@
         <f t="shared" si="13"/>
         <v>42884</v>
       </c>
+      <c r="J184" s="2">
+        <v>26.12</v>
+      </c>
       <c r="K184">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -19229,11 +19352,11 @@
       </c>
       <c r="M184" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1541.0800000000002</v>
       </c>
       <c r="N184" s="2">
         <f t="shared" si="17"/>
-        <v>-1003</v>
+        <v>538.08000000000015</v>
       </c>
       <c r="O184" s="2"/>
     </row>
@@ -19267,6 +19390,9 @@
         <f t="shared" si="13"/>
         <v>42884</v>
       </c>
+      <c r="J185" s="2">
+        <v>14.15</v>
+      </c>
       <c r="K185">
         <f t="shared" si="14"/>
         <v>75</v>
@@ -19277,11 +19403,11 @@
       </c>
       <c r="M185" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1061.25</v>
       </c>
       <c r="N185" s="2">
         <f t="shared" si="17"/>
-        <v>-1012.5</v>
+        <v>48.75</v>
       </c>
       <c r="O185" s="2"/>
     </row>
@@ -19315,6 +19441,9 @@
         <f t="shared" si="13"/>
         <v>42884</v>
       </c>
+      <c r="J186" s="2">
+        <v>39.21</v>
+      </c>
       <c r="K186">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -19325,11 +19454,11 @@
       </c>
       <c r="M186" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1882.08</v>
       </c>
       <c r="N186" s="2">
         <f t="shared" si="17"/>
-        <v>-1008</v>
+        <v>874.07999999999993</v>
       </c>
       <c r="O186" s="2"/>
     </row>
@@ -19363,6 +19492,9 @@
         <f t="shared" si="13"/>
         <v>42877</v>
       </c>
+      <c r="J187" s="2">
+        <v>16.13</v>
+      </c>
       <c r="K187">
         <f t="shared" si="14"/>
         <v>72</v>
@@ -19373,11 +19505,11 @@
       </c>
       <c r="M187" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1161.3599999999999</v>
       </c>
       <c r="N187" s="2">
         <f t="shared" si="17"/>
-        <v>-1008</v>
+        <v>153.3599999999999</v>
       </c>
       <c r="O187" s="2"/>
     </row>
@@ -19411,6 +19543,9 @@
         <f t="shared" si="13"/>
         <v>42877</v>
       </c>
+      <c r="J188" s="2">
+        <v>21.02</v>
+      </c>
       <c r="K188">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -19421,11 +19556,11 @@
       </c>
       <c r="M188" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>798.76</v>
       </c>
       <c r="N188" s="2">
         <f t="shared" si="17"/>
-        <v>-1007</v>
+        <v>-208.24</v>
       </c>
       <c r="O188" s="2"/>
     </row>
@@ -19459,6 +19594,9 @@
         <f t="shared" si="13"/>
         <v>42870</v>
       </c>
+      <c r="J189" s="2">
+        <v>8.4499999999999993</v>
+      </c>
       <c r="K189">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -19469,11 +19607,11 @@
       </c>
       <c r="M189" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>447.84999999999997</v>
       </c>
       <c r="N189" s="2">
         <f t="shared" si="17"/>
-        <v>-1007</v>
+        <v>-559.15000000000009</v>
       </c>
       <c r="O189" s="2"/>
     </row>
@@ -19507,6 +19645,9 @@
         <f t="shared" si="13"/>
         <v>42870</v>
       </c>
+      <c r="J190" s="2">
+        <v>16.32</v>
+      </c>
       <c r="K190">
         <f t="shared" si="14"/>
         <v>66</v>
@@ -19517,11 +19658,11 @@
       </c>
       <c r="M190" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1077.1200000000001</v>
       </c>
       <c r="N190" s="2">
         <f t="shared" si="17"/>
-        <v>-1006.5</v>
+        <v>70.620000000000118</v>
       </c>
       <c r="O190" s="2"/>
     </row>
@@ -19555,6 +19696,9 @@
         <f t="shared" si="13"/>
         <v>42863</v>
       </c>
+      <c r="J191" s="2">
+        <v>7.65</v>
+      </c>
       <c r="K191">
         <f t="shared" si="14"/>
         <v>124</v>
@@ -19565,11 +19709,11 @@
       </c>
       <c r="M191" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>948.6</v>
       </c>
       <c r="N191" s="2">
         <f t="shared" si="17"/>
-        <v>-1003.16</v>
+        <v>-54.559999999999945</v>
       </c>
       <c r="O191" s="2"/>
     </row>
@@ -19603,6 +19747,9 @@
         <f t="shared" si="13"/>
         <v>42863</v>
       </c>
+      <c r="J192" s="2">
+        <v>22.97</v>
+      </c>
       <c r="K192">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -19613,11 +19760,11 @@
       </c>
       <c r="M192" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1171.47</v>
       </c>
       <c r="N192" s="2">
         <f t="shared" si="17"/>
-        <v>-1012.35</v>
+        <v>159.12</v>
       </c>
       <c r="O192" s="2"/>
     </row>
@@ -19651,6 +19798,9 @@
         <f t="shared" si="13"/>
         <v>42863</v>
       </c>
+      <c r="J193" s="2">
+        <v>18.579999999999998</v>
+      </c>
       <c r="K193">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -19661,11 +19811,11 @@
       </c>
       <c r="M193" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>984.7399999999999</v>
       </c>
       <c r="N193" s="2">
         <f t="shared" si="17"/>
-        <v>-1007</v>
+        <v>-22.260000000000105</v>
       </c>
       <c r="O193" s="2"/>
     </row>
@@ -19699,6 +19849,9 @@
         <f t="shared" si="13"/>
         <v>42853</v>
       </c>
+      <c r="J194" s="2">
+        <v>53.31</v>
+      </c>
       <c r="K194">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -19709,11 +19862,11 @@
       </c>
       <c r="M194" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1119.51</v>
       </c>
       <c r="N194" s="2">
         <f t="shared" si="17"/>
-        <v>-1018.5</v>
+        <v>101.00999999999999</v>
       </c>
       <c r="O194" s="2"/>
     </row>
@@ -19747,6 +19900,9 @@
         <f t="shared" ref="I195:I258" si="19">WORKDAY(B195+31 -1,1)</f>
         <v>42849</v>
       </c>
+      <c r="J195" s="2">
+        <v>9.7100000000000009</v>
+      </c>
       <c r="K195">
         <f t="shared" ref="K195:K258" si="20">_xlfn.CEILING.MATH(1000/C195)</f>
         <v>96</v>
@@ -19757,11 +19913,11 @@
       </c>
       <c r="M195" s="2">
         <f t="shared" ref="M195:M258" si="22">K195 *J195</f>
-        <v>0</v>
+        <v>932.16000000000008</v>
       </c>
       <c r="N195" s="2">
         <f t="shared" ref="N195:N258" si="23">M195-L195</f>
-        <v>-1008</v>
+        <v>-75.839999999999918</v>
       </c>
       <c r="O195" s="2"/>
     </row>
@@ -19795,6 +19951,9 @@
         <f t="shared" si="19"/>
         <v>42849</v>
       </c>
+      <c r="J196" s="2">
+        <v>15.27</v>
+      </c>
       <c r="K196">
         <f t="shared" si="20"/>
         <v>61</v>
@@ -19805,11 +19964,11 @@
       </c>
       <c r="M196" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>931.47</v>
       </c>
       <c r="N196" s="2">
         <f t="shared" si="23"/>
-        <v>-1006.5</v>
+        <v>-75.029999999999973</v>
       </c>
       <c r="O196" s="2"/>
     </row>
@@ -19843,6 +20002,9 @@
         <f t="shared" si="19"/>
         <v>42849</v>
       </c>
+      <c r="J197" s="2">
+        <v>13.61</v>
+      </c>
       <c r="K197">
         <f t="shared" si="20"/>
         <v>84</v>
@@ -19853,11 +20015,11 @@
       </c>
       <c r="M197" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1143.24</v>
       </c>
       <c r="N197" s="2">
         <f t="shared" si="23"/>
-        <v>-1008</v>
+        <v>135.24</v>
       </c>
       <c r="O197" s="2"/>
     </row>
@@ -19891,6 +20053,9 @@
         <f t="shared" si="19"/>
         <v>42849</v>
       </c>
+      <c r="J198" s="2">
+        <v>37.01</v>
+      </c>
       <c r="K198">
         <f t="shared" si="20"/>
         <v>29</v>
@@ -19901,11 +20066,11 @@
       </c>
       <c r="M198" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1073.29</v>
       </c>
       <c r="N198" s="2">
         <f t="shared" si="23"/>
-        <v>-1015</v>
+        <v>58.289999999999964</v>
       </c>
       <c r="O198" s="2"/>
     </row>
@@ -19939,6 +20104,9 @@
         <f t="shared" si="19"/>
         <v>42849</v>
       </c>
+      <c r="J199" s="2">
+        <v>22.19</v>
+      </c>
       <c r="K199">
         <f t="shared" si="20"/>
         <v>50</v>
@@ -19949,11 +20117,11 @@
       </c>
       <c r="M199" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1109.5</v>
       </c>
       <c r="N199" s="2">
         <f t="shared" si="23"/>
-        <v>-1012.5</v>
+        <v>97</v>
       </c>
       <c r="O199" s="2"/>
     </row>
@@ -19987,6 +20155,9 @@
         <f t="shared" si="19"/>
         <v>42849</v>
       </c>
+      <c r="J200" s="2">
+        <v>6.83</v>
+      </c>
       <c r="K200">
         <f t="shared" si="20"/>
         <v>100</v>
@@ -19997,11 +20168,11 @@
       </c>
       <c r="M200" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="N200" s="2">
         <f t="shared" si="23"/>
-        <v>-1000</v>
+        <v>-317</v>
       </c>
       <c r="O200" s="2"/>
     </row>
@@ -20035,6 +20206,9 @@
         <f t="shared" si="19"/>
         <v>42842</v>
       </c>
+      <c r="J201" s="2">
+        <v>301.44</v>
+      </c>
       <c r="K201">
         <f t="shared" si="20"/>
         <v>4</v>
@@ -20045,11 +20219,11 @@
       </c>
       <c r="M201" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1205.76</v>
       </c>
       <c r="N201" s="2">
         <f t="shared" si="23"/>
-        <v>-1048</v>
+        <v>157.76</v>
       </c>
       <c r="O201" s="2"/>
     </row>
@@ -20083,6 +20257,9 @@
         <f t="shared" si="19"/>
         <v>42842</v>
       </c>
+      <c r="J202" s="2">
+        <v>14.5</v>
+      </c>
       <c r="K202">
         <f t="shared" si="20"/>
         <v>72</v>
@@ -20093,11 +20270,11 @@
       </c>
       <c r="M202" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="N202" s="2">
         <f t="shared" si="23"/>
-        <v>-1008</v>
+        <v>36</v>
       </c>
       <c r="O202" s="2"/>
     </row>
@@ -20131,6 +20308,9 @@
         <f t="shared" si="19"/>
         <v>42842</v>
       </c>
+      <c r="J203" s="2">
+        <v>16.010000000000002</v>
+      </c>
       <c r="K203">
         <f t="shared" si="20"/>
         <v>79</v>
@@ -20141,11 +20321,11 @@
       </c>
       <c r="M203" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1264.7900000000002</v>
       </c>
       <c r="N203" s="2">
         <f t="shared" si="23"/>
-        <v>-1009.62</v>
+        <v>255.17000000000019</v>
       </c>
       <c r="O203" s="2"/>
     </row>
@@ -20179,6 +20359,9 @@
         <f t="shared" si="19"/>
         <v>42839</v>
       </c>
+      <c r="J204" s="2">
+        <v>19.98</v>
+      </c>
       <c r="K204">
         <f t="shared" si="20"/>
         <v>53</v>
@@ -20189,11 +20372,11 @@
       </c>
       <c r="M204" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1058.94</v>
       </c>
       <c r="N204" s="2">
         <f t="shared" si="23"/>
-        <v>-1007</v>
+        <v>51.940000000000055</v>
       </c>
       <c r="O204" s="2"/>
     </row>
@@ -20227,6 +20410,9 @@
         <f t="shared" si="19"/>
         <v>42835</v>
       </c>
+      <c r="J205" s="2">
+        <v>15.26</v>
+      </c>
       <c r="K205">
         <f t="shared" si="20"/>
         <v>72</v>
@@ -20237,11 +20423,11 @@
       </c>
       <c r="M205" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1098.72</v>
       </c>
       <c r="N205" s="2">
         <f t="shared" si="23"/>
-        <v>-1008</v>
+        <v>90.720000000000027</v>
       </c>
       <c r="O205" s="2"/>
     </row>
@@ -20275,6 +20461,9 @@
         <f t="shared" si="19"/>
         <v>42832</v>
       </c>
+      <c r="J206" s="2">
+        <v>41.75</v>
+      </c>
       <c r="K206">
         <f t="shared" si="20"/>
         <v>28</v>
@@ -20285,11 +20474,11 @@
       </c>
       <c r="M206" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="N206" s="2">
         <f t="shared" si="23"/>
-        <v>-1008</v>
+        <v>161</v>
       </c>
       <c r="O206" s="2"/>
     </row>
@@ -20323,6 +20512,9 @@
         <f t="shared" si="19"/>
         <v>42828</v>
       </c>
+      <c r="J207" s="2">
+        <v>22.35</v>
+      </c>
       <c r="K207">
         <f t="shared" si="20"/>
         <v>59</v>
@@ -20333,11 +20525,11 @@
       </c>
       <c r="M207" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1318.65</v>
       </c>
       <c r="N207" s="2">
         <f t="shared" si="23"/>
-        <v>-1003</v>
+        <v>315.65000000000009</v>
       </c>
       <c r="O207" s="2"/>
     </row>
@@ -20371,6 +20563,9 @@
         <f t="shared" si="19"/>
         <v>42821</v>
       </c>
+      <c r="J208" s="2">
+        <v>34.75</v>
+      </c>
       <c r="K208">
         <f t="shared" si="20"/>
         <v>35</v>
@@ -20381,11 +20576,11 @@
       </c>
       <c r="M208" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1216.25</v>
       </c>
       <c r="N208" s="2">
         <f t="shared" si="23"/>
-        <v>-1023.75</v>
+        <v>192.5</v>
       </c>
       <c r="O208" s="2"/>
     </row>
@@ -20419,6 +20614,9 @@
         <f t="shared" si="19"/>
         <v>42814</v>
       </c>
+      <c r="J209" s="2">
+        <v>26.11</v>
+      </c>
       <c r="K209">
         <f t="shared" si="20"/>
         <v>40</v>
@@ -20429,11 +20627,11 @@
       </c>
       <c r="M209" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1044.4000000000001</v>
       </c>
       <c r="N209" s="2">
         <f t="shared" si="23"/>
-        <v>-1000</v>
+        <v>44.400000000000091</v>
       </c>
       <c r="O209" s="2"/>
     </row>
@@ -20467,6 +20665,9 @@
         <f t="shared" si="19"/>
         <v>42807</v>
       </c>
+      <c r="J210" s="2">
+        <v>13.24</v>
+      </c>
       <c r="K210">
         <f t="shared" si="20"/>
         <v>75</v>
@@ -20477,11 +20678,11 @@
       </c>
       <c r="M210" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="N210" s="2">
         <f t="shared" si="23"/>
-        <v>-1012.5</v>
+        <v>-19.5</v>
       </c>
       <c r="O210" s="2"/>
     </row>
@@ -20515,6 +20716,9 @@
         <f t="shared" si="19"/>
         <v>42800</v>
       </c>
+      <c r="J211" s="2">
+        <v>12.84</v>
+      </c>
       <c r="K211">
         <f t="shared" si="20"/>
         <v>75</v>
@@ -20525,11 +20729,11 @@
       </c>
       <c r="M211" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="N211" s="2">
         <f t="shared" si="23"/>
-        <v>-1012.5</v>
+        <v>-49.5</v>
       </c>
       <c r="O211" s="2"/>
     </row>
@@ -20563,6 +20767,9 @@
         <f t="shared" si="19"/>
         <v>42800</v>
       </c>
+      <c r="J212" s="2">
+        <v>16.72</v>
+      </c>
       <c r="K212">
         <f t="shared" si="20"/>
         <v>58</v>
@@ -20573,11 +20780,11 @@
       </c>
       <c r="M212" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>969.76</v>
       </c>
       <c r="N212" s="2">
         <f t="shared" si="23"/>
-        <v>-1015</v>
+        <v>-45.240000000000009</v>
       </c>
       <c r="O212" s="2"/>
     </row>
@@ -20611,6 +20818,9 @@
         <f t="shared" si="19"/>
         <v>42797</v>
       </c>
+      <c r="J213" s="2">
+        <v>20.68</v>
+      </c>
       <c r="K213">
         <f t="shared" si="20"/>
         <v>53</v>
@@ -20621,11 +20831,11 @@
       </c>
       <c r="M213" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1096.04</v>
       </c>
       <c r="N213" s="2">
         <f t="shared" si="23"/>
-        <v>-1007</v>
+        <v>89.039999999999964</v>
       </c>
       <c r="O213" s="2"/>
     </row>
@@ -20659,6 +20869,9 @@
         <f t="shared" si="19"/>
         <v>42797</v>
       </c>
+      <c r="J214" s="2">
+        <v>18.23</v>
+      </c>
       <c r="K214">
         <f t="shared" si="20"/>
         <v>62</v>
@@ -20669,11 +20882,11 @@
       </c>
       <c r="M214" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1130.26</v>
       </c>
       <c r="N214" s="2">
         <f t="shared" si="23"/>
-        <v>-1007.5</v>
+        <v>122.75999999999999</v>
       </c>
       <c r="O214" s="2"/>
     </row>
@@ -20707,6 +20920,9 @@
         <f t="shared" si="19"/>
         <v>42797</v>
       </c>
+      <c r="J215" s="2">
+        <v>12.5</v>
+      </c>
       <c r="K215">
         <f t="shared" si="20"/>
         <v>72</v>
@@ -20717,11 +20933,11 @@
       </c>
       <c r="M215" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N215" s="2">
         <f t="shared" si="23"/>
-        <v>-1008</v>
+        <v>-108</v>
       </c>
       <c r="O215" s="2"/>
     </row>
@@ -20755,6 +20971,9 @@
         <f t="shared" si="19"/>
         <v>42797</v>
       </c>
+      <c r="J216" s="2">
+        <v>12.5</v>
+      </c>
       <c r="K216">
         <f t="shared" si="20"/>
         <v>50</v>
@@ -20765,11 +20984,11 @@
       </c>
       <c r="M216" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="N216" s="2">
         <f t="shared" si="23"/>
-        <v>-1000</v>
+        <v>-375</v>
       </c>
       <c r="O216" s="2"/>
     </row>
@@ -20803,6 +21022,9 @@
         <f t="shared" si="19"/>
         <v>42797</v>
       </c>
+      <c r="J217" s="2">
+        <v>21.21</v>
+      </c>
       <c r="K217">
         <f t="shared" si="20"/>
         <v>32</v>
@@ -20813,11 +21035,11 @@
       </c>
       <c r="M217" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>678.72</v>
       </c>
       <c r="N217" s="2">
         <f t="shared" si="23"/>
-        <v>-1024</v>
+        <v>-345.28</v>
       </c>
       <c r="O217" s="2"/>
     </row>
@@ -20851,6 +21073,9 @@
         <f t="shared" si="19"/>
         <v>42796</v>
       </c>
+      <c r="J218" s="2">
+        <v>14.16</v>
+      </c>
       <c r="K218">
         <f t="shared" si="20"/>
         <v>67</v>
@@ -20861,11 +21086,11 @@
       </c>
       <c r="M218" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>948.72</v>
       </c>
       <c r="N218" s="2">
         <f t="shared" si="23"/>
-        <v>-1005</v>
+        <v>-56.279999999999973</v>
       </c>
       <c r="O218" s="2"/>
     </row>
@@ -20899,6 +21124,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J219" s="2">
+        <v>109.29</v>
+      </c>
       <c r="K219">
         <f t="shared" si="20"/>
         <v>10</v>
@@ -20909,11 +21137,11 @@
       </c>
       <c r="M219" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1092.9000000000001</v>
       </c>
       <c r="N219" s="2">
         <f t="shared" si="23"/>
-        <v>-1100</v>
+        <v>-7.0999999999999091</v>
       </c>
       <c r="O219" s="2"/>
     </row>
@@ -20947,6 +21175,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J220" s="2">
+        <v>28.24</v>
+      </c>
       <c r="K220">
         <f t="shared" si="20"/>
         <v>46</v>
@@ -20957,11 +21188,11 @@
       </c>
       <c r="M220" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1299.04</v>
       </c>
       <c r="N220" s="2">
         <f t="shared" si="23"/>
-        <v>-1012</v>
+        <v>287.03999999999996</v>
       </c>
       <c r="O220" s="2"/>
     </row>
@@ -20995,6 +21226,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J221" s="2">
+        <v>31.13</v>
+      </c>
       <c r="K221">
         <f t="shared" si="20"/>
         <v>44</v>
@@ -21005,11 +21239,11 @@
       </c>
       <c r="M221" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1369.72</v>
       </c>
       <c r="N221" s="2">
         <f t="shared" si="23"/>
-        <v>-1012</v>
+        <v>357.72</v>
       </c>
       <c r="O221" s="2"/>
     </row>
@@ -21043,6 +21277,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J222" s="2">
+        <v>13.68</v>
+      </c>
       <c r="K222">
         <f t="shared" si="20"/>
         <v>67</v>
@@ -21053,11 +21290,11 @@
       </c>
       <c r="M222" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>916.56</v>
       </c>
       <c r="N222" s="2">
         <f t="shared" si="23"/>
-        <v>-1005</v>
+        <v>-88.440000000000055</v>
       </c>
       <c r="O222" s="2"/>
     </row>
@@ -21091,6 +21328,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J223" s="2">
+        <v>27.86</v>
+      </c>
       <c r="K223">
         <f t="shared" si="20"/>
         <v>39</v>
@@ -21101,11 +21341,11 @@
       </c>
       <c r="M223" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1086.54</v>
       </c>
       <c r="N223" s="2">
         <f t="shared" si="23"/>
-        <v>-1014</v>
+        <v>72.539999999999964</v>
       </c>
       <c r="O223" s="2"/>
     </row>
@@ -21139,6 +21379,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J224" s="2">
+        <v>13.62</v>
+      </c>
       <c r="K224">
         <f t="shared" si="20"/>
         <v>67</v>
@@ -21149,11 +21392,11 @@
       </c>
       <c r="M224" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>912.54</v>
       </c>
       <c r="N224" s="2">
         <f t="shared" si="23"/>
-        <v>-1005</v>
+        <v>-92.460000000000036</v>
       </c>
       <c r="O224" s="2"/>
     </row>
@@ -21187,6 +21430,9 @@
         <f t="shared" si="19"/>
         <v>42793</v>
       </c>
+      <c r="J225" s="2">
+        <v>24</v>
+      </c>
       <c r="K225">
         <f t="shared" si="20"/>
         <v>67</v>
@@ -21197,11 +21443,11 @@
       </c>
       <c r="M225" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="N225" s="2">
         <f t="shared" si="23"/>
-        <v>-1005</v>
+        <v>603</v>
       </c>
       <c r="O225" s="2"/>
     </row>
@@ -21235,6 +21481,9 @@
         <f t="shared" si="19"/>
         <v>42786</v>
       </c>
+      <c r="J226" s="2">
+        <v>27</v>
+      </c>
       <c r="K226">
         <f t="shared" si="20"/>
         <v>38</v>
@@ -21245,11 +21494,11 @@
       </c>
       <c r="M226" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="N226" s="2">
         <f t="shared" si="23"/>
-        <v>-1026</v>
+        <v>0</v>
       </c>
       <c r="O226" s="2"/>
       <c r="Q226" s="2">
@@ -21258,7 +21507,7 @@
       </c>
       <c r="R226" s="2">
         <f>SUM(N96:N226)</f>
-        <v>-81728</v>
+        <v>5169.3500000000004</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">

--- a/IPO.xlsx
+++ b/IPO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Stock-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Finance\Stock-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6713841-9941-4308-A169-FFCD3442C3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C861A2DD-34AC-40F6-BF96-FBF54B4EA994}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{733BDA92-9E3C-4E5F-9E15-F00BFF817DE9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="3131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="3132">
   <si>
     <t>Offering</t>
   </si>
@@ -9414,9 +9414,6 @@
     <t>One Month</t>
   </si>
   <si>
-    <t>WorkDay</t>
-  </si>
-  <si>
     <t>$ Value</t>
   </si>
   <si>
@@ -9424,6 +9421,12 @@
   </si>
   <si>
     <t>Profit/loss</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Price Date</t>
   </si>
 </sst>
 </file>
@@ -9936,8 +9939,8 @@
   <dimension ref="A1:R1448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q226" sqref="Q226"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9951,6 +9954,7 @@
     <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -9985,22 +9989,22 @@
         <v>3126</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2</v>
+        <v>3130</v>
       </c>
       <c r="K1" s="3">
         <v>1000</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>3128</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>3129</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>3130</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -75545,7 +75549,7 @@
         <v>3047</v>
       </c>
       <c r="H1411" s="1">
-        <f t="shared" ref="H1411:H1448" si="132">B1411+31</f>
+        <f t="shared" ref="H1411:H1447" si="132">B1411+31</f>
         <v>36258</v>
       </c>
       <c r="I1411" s="1">
